--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>UserDetailsBySpi</t>
   </si>
@@ -32,6 +32,15 @@
     <t>Semester</t>
   </si>
   <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Count</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
     <t>638735cca679890ff1507a1f</t>
   </si>
   <si>
@@ -42,6 +51,12 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>638735d8a679890ff1507a20</t>
@@ -200,18 +215,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="28.0625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.36328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.9609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.41015625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.12890625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="0.15" customHeight="true">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -230,140 +254,230 @@
       <c r="E3" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="F3"/>
+      <c r="F3" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F4" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s" s="1">
-        <v>9</v>
+      <c r="F6" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="F8" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="F9" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F10" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="F11" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s" s="1">
         <v>14</v>
       </c>
     </row>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -6,36 +6,282 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="SHEET NAME" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>PurchaseDetails</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>ItemName</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>TotalPrice</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
+  <si>
+    <t>UserDetails</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>pSiya</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>priya km sharma</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>angular  developer</t>
+  </si>
+  <si>
+    <t>25000.0</t>
+  </si>
+  <si>
+    <t>pinkii</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>pinkii km sharma</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>5000.0</t>
+  </si>
+  <si>
+    <t>neetu</t>
+  </si>
+  <si>
+    <t>vishwakarma</t>
+  </si>
+  <si>
+    <t>neetu km vishwakarma</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>manisha</t>
+  </si>
+  <si>
+    <t>shukla</t>
+  </si>
+  <si>
+    <t>manisha km shukla</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>mahi</t>
+  </si>
+  <si>
+    <t>mahi km shukla</t>
+  </si>
+  <si>
+    <t>aayush</t>
+  </si>
+  <si>
+    <t>raviPrakash</t>
+  </si>
+  <si>
+    <t>aayush raviPrakash vishwakarma</t>
+  </si>
+  <si>
+    <t>pratiksha</t>
+  </si>
+  <si>
+    <t>girase</t>
+  </si>
+  <si>
+    <t>pratiksha km girase</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>prashant</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>prashant kumar singh</t>
+  </si>
+  <si>
+    <t>krish</t>
+  </si>
+  <si>
+    <t>tripathi</t>
+  </si>
+  <si>
+    <t>krish km tripathi</t>
+  </si>
+  <si>
+    <t>900.0</t>
+  </si>
+  <si>
+    <t>aman</t>
+  </si>
+  <si>
+    <t>krishna</t>
+  </si>
+  <si>
+    <t>mishra</t>
+  </si>
+  <si>
+    <t>aman krishna mishra</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>800.0</t>
+  </si>
+  <si>
+    <t>ishu</t>
+  </si>
+  <si>
+    <t>ishu km tripathi</t>
+  </si>
+  <si>
+    <t>savan</t>
+  </si>
+  <si>
+    <t>kritibhai</t>
+  </si>
+  <si>
+    <t>patel</t>
+  </si>
+  <si>
+    <t>savan kritibhai patel</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>sanskriti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sanskriti km shukla</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>software developer</t>
+  </si>
+  <si>
+    <t>java developer</t>
+  </si>
+  <si>
+    <t>dency</t>
+  </si>
+  <si>
+    <t>reert</t>
+  </si>
+  <si>
+    <t>gevariya</t>
+  </si>
+  <si>
+    <t>dency reert gevariya</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>24000.0</t>
+  </si>
+  <si>
+    <t>karan</t>
+  </si>
+  <si>
+    <t>rathor</t>
+  </si>
+  <si>
+    <t>karan singh rathor</t>
+  </si>
+  <si>
+    <t>raman krishna mishra</t>
+  </si>
+  <si>
+    <t>php developer</t>
+  </si>
+  <si>
+    <t>sans</t>
+  </si>
+  <si>
+    <t>sanskriti km shukla</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>20000.0</t>
+  </si>
+  <si>
+    <t>sans km shukla</t>
+  </si>
+  <si>
+    <t>dency km gevariya</t>
+  </si>
+  <si>
+    <t>sanskrti</t>
+  </si>
+  <si>
+    <t>sanskrti km shukla</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>Manisha</t>
+  </si>
+  <si>
+    <t>Manisha km shukla</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>civil enginner</t>
+  </si>
+  <si>
+    <t>30000.0</t>
   </si>
 </sst>
 </file>
@@ -135,7 +381,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -146,16 +394,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="5.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.5078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="6.41796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.0" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.2421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.8125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.4296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.47265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.28125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -164,42 +415,586 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2"/>
+      <c r="B2" t="s" s="1">
         <v>1</v>
       </c>
+      <c r="C2" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3"/>
-      <c r="B3" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3"/>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4"/>
-      <c r="B4" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s" s="1">
-        <v>7</v>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>